--- a/py_edit/files/Analytics/John_Doe.xlsx
+++ b/py_edit/files/Analytics/John_Doe.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.haynes\Desktop\py_edit\foo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.haynes\Desktop\py_edit\files\Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ABBA4A-EFF0-4DF9-A93E-99280F42A917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104CF2AF-4CE6-4B73-88C4-F5D9923DD1AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSM Template" sheetId="2" r:id="rId1"/>
     <sheet name="CSM Team Member 2" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Settings" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Settings" sheetId="5" r:id="rId3"/>
     <sheet name="Admin" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="174">
   <si>
     <t>Week of 4/22/24</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>Enter your team members in the table below. Specify "Name", "Role", "Region", and the "VTS ID" which coresponds to a "Vertical/Team/Sales Group" combination row in the VTS table to the right. Once all Team information is entered, double-click on the "Generate Timesheets" button. This will generate timesheets for all team members which have a name value. Empty name values will be ignored. The files will be generated in the same location as this file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical </t>
   </si>
 </sst>
 </file>
@@ -2755,7 +2758,7 @@
     <tableColumn id="2" xr3:uid="{F32C3878-EE4D-4E65-84FD-518FC67689CE}" name="Role" dataDxfId="51"/>
     <tableColumn id="3" xr3:uid="{B07DD6AA-32AE-4A3D-8C0A-2842843AE14A}" name="Region " dataDxfId="50"/>
     <tableColumn id="7" xr3:uid="{8F44707A-9E05-461C-B060-D97AC98C311C}" name="VTS" dataDxfId="49" dataCellStyle="Note"/>
-    <tableColumn id="4" xr3:uid="{F9DE6917-23AD-4343-AB10-7CB8BD116EA1}" name="Vetical " dataDxfId="48" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{F9DE6917-23AD-4343-AB10-7CB8BD116EA1}" name="Vertical " dataDxfId="48" dataCellStyle="Normal">
       <calculatedColumnFormula>VLOOKUP(staff[[#This Row],[VTS]],vts[#All],2, 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4172B6B9-645F-479E-A5EC-4E34D97893C0}" name="Team" dataDxfId="47" dataCellStyle="Normal">
@@ -9037,7 +9040,9 @@
   </sheetPr>
   <dimension ref="A1:AD1047"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9308,7 +9313,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="G9" s="91" t="s">
         <v>10</v>
@@ -34544,7 +34549,7 @@
       <c r="H1047" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qwVbgeKfqoLbgEaoIjnDRLSjDDT3UU6Cb6pFpvghHvemB+fJyBXItYHH2fM9VEg9iLUZdy90V/+T/qm/CC/OcA==" saltValue="HlgwbQRjqJkOBki/Z6+r8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qtsS5o3AsLX2DNGw9rgVKAr3CnkrMPCUvTus0JXg9t2BEWtXMZp3o1iec+TLG9/3UFonC5HR8nl2N9zHyxKXvA==" saltValue="eCz+MXdSFclmbePRQv2AEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
@@ -34573,7 +34578,7 @@
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>1076325</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
